--- a/tests/202205/RCN-202205.xlsx
+++ b/tests/202205/RCN-202205.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CodeHagen\GitHub\TMetric2Excel\tests\202205\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FWHagen\TMetric2Excel\tests\202205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06ED73FC-1E36-43EC-BC2D-5ADF93F60ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94824820-312C-4AAF-AC1B-BF3B5BA76F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1335" windowWidth="24060" windowHeight="13590" xr2:uid="{A5D145B9-61F5-486D-B888-B2FE700B46D1}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11325" xr2:uid="{4F9DFFA8-DBFE-4749-A272-8C8DACC783B6}"/>
   </bookViews>
   <sheets>
     <sheet name="202205" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -106,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +116,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -162,6 +174,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -477,8 +495,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4558968A-773C-4770-9B16-0ECB53A3AEC0}">
-  <dimension ref="A1:E49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44191E4-473B-4846-901A-E24A529CF904}">
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44697</v>
       </c>
@@ -793,7 +811,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44698</v>
       </c>
@@ -811,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44699</v>
       </c>
@@ -829,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44700</v>
       </c>
@@ -847,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44701</v>
       </c>
@@ -865,7 +883,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44702</v>
       </c>
@@ -883,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44703</v>
       </c>
@@ -901,25 +919,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>44704</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="10">
         <v>8</v>
       </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
         <f>SUM(B24:D24)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44705</v>
       </c>
@@ -937,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44706</v>
       </c>
@@ -955,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44707</v>
       </c>
@@ -973,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44708</v>
       </c>
@@ -991,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44709</v>
       </c>
@@ -1009,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44710</v>
       </c>
@@ -1027,38 +1049,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
         <v>44711</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="13">
         <v>8</v>
       </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="C31" s="13">
+        <v>0</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
         <f>SUM(B31:D31)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
         <v>44712</v>
       </c>
-      <c r="B32" s="9">
-        <v>0</v>
-      </c>
-      <c r="C32" s="9">
-        <v>0</v>
-      </c>
-      <c r="D32" s="9">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="B32" s="15">
+        <v>0</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0</v>
+      </c>
+      <c r="E32" s="15">
         <f>SUM(B32:D32)</f>
         <v>0</v>
       </c>
@@ -1148,6 +1174,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/202205/RCN-202205.xlsx
+++ b/tests/202205/RCN-202205.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FWHagen\TMetric2Excel\tests\202205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94824820-312C-4AAF-AC1B-BF3B5BA76F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B452889-9C5D-4976-9BCA-CABE0957A604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11325" xr2:uid="{4F9DFFA8-DBFE-4749-A272-8C8DACC783B6}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11265" xr2:uid="{B10CC700-5F0C-42DC-B2BA-66243516D49D}"/>
   </bookViews>
   <sheets>
     <sheet name="202205" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -495,7 +496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44191E4-473B-4846-901A-E24A529CF904}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634BEA7A-56B7-49FD-872F-F1A6A30A412B}">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/tests/202205/RCN-202205.xlsx
+++ b/tests/202205/RCN-202205.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FWHagen\TMetric2Excel\tests\202205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B452889-9C5D-4976-9BCA-CABE0957A604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FBD70D0-A2CD-4A16-BF6F-46AD3050EE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11265" xr2:uid="{B10CC700-5F0C-42DC-B2BA-66243516D49D}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11265" xr2:uid="{3A414858-C407-463A-9030-F61A0F9E5A10}"/>
   </bookViews>
   <sheets>
     <sheet name="202205" sheetId="1" r:id="rId1"/>
@@ -165,24 +165,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,15 +510,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634BEA7A-56B7-49FD-872F-F1A6A30A412B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF5F29F-1A0C-4420-A50B-9582E337C2BE}">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="4"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="4" width="16.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -520,7 +535,7 @@
       <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -546,16 +561,16 @@
       <c r="A3" s="2">
         <v>44683</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
         <v>0.5</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
         <f>SUM(B3:D3)</f>
         <v>0.5</v>
       </c>
@@ -564,16 +579,16 @@
       <c r="A4" s="2">
         <v>44684</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
         <v>0.5</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
         <f>SUM(B4:D4)</f>
         <v>0.5</v>
       </c>
@@ -582,16 +597,16 @@
       <c r="A5" s="2">
         <v>44685</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
         <v>0.5</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
         <f>SUM(B5:D5)</f>
         <v>0.5</v>
       </c>
@@ -600,16 +615,16 @@
       <c r="A6" s="2">
         <v>44686</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
         <v>0.5</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
         <f>SUM(B6:D6)</f>
         <v>0.5</v>
       </c>
@@ -618,16 +633,16 @@
       <c r="A7" s="2">
         <v>44687</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
         <v>1.5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f>SUM(B7:D7)</f>
         <v>5.5</v>
       </c>
@@ -672,16 +687,16 @@
       <c r="A10" s="2">
         <v>44690</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
         <v>1.5</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <f>SUM(B10:D10)</f>
         <v>1.5</v>
       </c>
@@ -690,16 +705,16 @@
       <c r="A11" s="2">
         <v>44691</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
         <f>SUM(B11:D11)</f>
         <v>0</v>
       </c>
@@ -708,16 +723,16 @@
       <c r="A12" s="2">
         <v>44692</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f>SUM(B12:D12)</f>
         <v>4</v>
       </c>
@@ -726,16 +741,16 @@
       <c r="A13" s="2">
         <v>44693</v>
       </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
         <f>SUM(B13:D13)</f>
         <v>0</v>
       </c>
@@ -744,16 +759,16 @@
       <c r="A14" s="2">
         <v>44694</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>7</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f>SUM(B14:D14)</f>
         <v>8</v>
       </c>
@@ -798,16 +813,16 @@
       <c r="A17" s="2">
         <v>44697</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
         <v>0.5</v>
       </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <f>SUM(B17:D17)</f>
         <v>0.5</v>
       </c>
@@ -816,16 +831,16 @@
       <c r="A18" s="2">
         <v>44698</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <f>SUM(B18:D18)</f>
         <v>1</v>
       </c>
@@ -834,16 +849,16 @@
       <c r="A19" s="2">
         <v>44699</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
         <v>0.5</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>3.5</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <f>SUM(B19:D19)</f>
         <v>4</v>
       </c>
@@ -852,16 +867,16 @@
       <c r="A20" s="2">
         <v>44700</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <f>SUM(B20:D20)</f>
         <v>0</v>
       </c>
@@ -870,16 +885,16 @@
       <c r="A21" s="2">
         <v>44701</v>
       </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
         <v>7.5</v>
       </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <f>SUM(B21:D21)</f>
         <v>7.5</v>
       </c>
@@ -946,16 +961,16 @@
       <c r="A25" s="2">
         <v>44705</v>
       </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
         <f>SUM(B25:D25)</f>
         <v>0</v>
       </c>
@@ -964,16 +979,16 @@
       <c r="A26" s="2">
         <v>44706</v>
       </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <f>SUM(B26:D26)</f>
         <v>1</v>
       </c>
@@ -982,16 +997,16 @@
       <c r="A27" s="2">
         <v>44707</v>
       </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <f>SUM(B27:D27)</f>
         <v>0</v>
       </c>
@@ -1000,16 +1015,16 @@
       <c r="A28" s="2">
         <v>44708</v>
       </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
         <f>SUM(B28:D28)</f>
         <v>0</v>
       </c>
@@ -1091,19 +1106,19 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <f>SUM(B2:B32)</f>
         <v>16</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <f>SUM(C2:C32)</f>
         <v>16.5</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <f>SUM(D2:D32)</f>
         <v>18.5</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="18">
         <f>SUM(E2:E32)</f>
         <v>51</v>
       </c>
@@ -1114,12 +1129,12 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1129,22 +1144,22 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1154,27 +1169,27 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>